--- a/data/sources/Rt_regions_punctual_from_ISS.xlsx
+++ b/data/sources/Rt_regions_punctual_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C463"/>
+  <dimension ref="A1:C484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6460,6 +6460,279 @@
         <v>44265</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C464" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C465" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C466" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C467" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C468" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C469" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Friuli VG</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C470" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C471" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C472" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C473" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C474" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+      <c r="C475" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C476" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C477" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C478" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C479" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C480" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C481" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C482" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C483" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C484" s="2" t="n">
+        <v>44272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/sources/Rt_regions_punctual_from_ISS.xlsx
+++ b/data/sources/Rt_regions_punctual_from_ISS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C484"/>
+  <dimension ref="A1:C505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6733,6 +6733,279 @@
         <v>44272</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C485" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C486" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Bolzano</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C487" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C488" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C489" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C490" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Friuli VG</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C491" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C492" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C493" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C494" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C495" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C496" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C497" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C498" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C499" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C500" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C501" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C502" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C503" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C504" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C505" s="2" t="n">
+        <v>44279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
